--- a/shinyapp/data/manualscrappingdata.xlsx
+++ b/shinyapp/data/manualscrappingdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D06C055-106F-1C4E-AE4B-B26BE400B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E336C12-4AEE-C44E-B052-769EF0062ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t xml:space="preserve">Excel sheet name </t>
   </si>
   <si>
-    <t xml:space="preserve">School (if the data is provided) </t>
-  </si>
-  <si>
     <t>Pillars</t>
   </si>
   <si>
@@ -112,9 +108,6 @@
     <t>Community Schools Annual Report 2019-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Year </t>
-  </si>
-  <si>
     <t xml:space="preserve">Family Engagement </t>
   </si>
   <si>
@@ -163,9 +156,6 @@
     <t xml:space="preserve">Community Schools 100-WS 2022(4) </t>
   </si>
   <si>
-    <t xml:space="preserve">2018 to 2019 </t>
-  </si>
-  <si>
     <t>Community School Initiative 2020-2021</t>
   </si>
   <si>
@@ -244,23 +234,17 @@
     <t>money raised to support parent as educational partners</t>
   </si>
   <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
     <t>Community Schools 2 pager 2021-2022</t>
   </si>
   <si>
-    <t>2018-2019</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,23 +284,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD9E1F2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD9E1F2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -454,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -464,7 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,8 +446,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
@@ -492,15 +461,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,17 +783,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:BD43"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
@@ -882,835 +848,671 @@
     <col min="55" max="55" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:36" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="22" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="B2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="22" t="s">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>538</v>
+      </c>
+      <c r="E3" s="3">
+        <v>135</v>
+      </c>
+      <c r="F3" s="3">
+        <v>557</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>600</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>1915</v>
+      </c>
+      <c r="H4" s="3">
+        <v>75</v>
+      </c>
+      <c r="I4" s="3">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="3">
+        <v>2020</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>538</v>
+        <v>832</v>
       </c>
       <c r="E5" s="3">
-        <v>135</v>
-      </c>
-      <c r="F5" s="3">
-        <v>557</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2021</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>808</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>832</v>
-      </c>
-      <c r="E7" s="3">
-        <v>807</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="7" spans="1:36" s="22" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="J8" s="17">
+        <v>197</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6</v>
+      </c>
+      <c r="L8" s="17">
+        <v>57</v>
+      </c>
+      <c r="M8" s="17">
+        <v>63</v>
+      </c>
+      <c r="N8" s="17">
+        <v>41</v>
+      </c>
+      <c r="O8" s="17">
+        <v>964</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="J9" s="17">
+        <v>321</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17">
+        <v>479</v>
+      </c>
+      <c r="M9" s="17">
+        <v>88</v>
+      </c>
+      <c r="N9" s="17">
+        <v>5</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="R11" s="18">
+        <v>8000</v>
+      </c>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18">
+        <v>100</v>
+      </c>
+      <c r="T12" s="18">
+        <v>95</v>
+      </c>
+      <c r="U12" s="18">
+        <v>45</v>
+      </c>
+      <c r="V12" s="18">
+        <v>132</v>
+      </c>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18">
+        <v>139</v>
+      </c>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>808</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>600</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>1915</v>
-      </c>
-      <c r="H12" s="3">
-        <v>75</v>
-      </c>
-      <c r="I12" s="3">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" s="24" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="24" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>145</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+    </row>
+    <row r="15" spans="1:36" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="AF16" s="19">
+        <v>6700</v>
+      </c>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19">
+        <v>323</v>
+      </c>
+      <c r="AH17" s="19">
+        <v>6</v>
+      </c>
+      <c r="AI17" s="19">
+        <v>373</v>
+      </c>
+      <c r="AJ17" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC18" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="24"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="AK19" s="15">
+        <v>3028</v>
+      </c>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="AX19" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="AY19" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="AZ19" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="BA19" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="BB19" s="15">
+        <v>6700</v>
+      </c>
+      <c r="BC19" s="15">
+        <v>8000</v>
+      </c>
+      <c r="BD19" s="15"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="AN20" s="15">
+        <v>337</v>
+      </c>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15">
+        <v>3028</v>
+      </c>
+      <c r="AT20" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="AW20" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="AX20" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="AY20" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="AZ20" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="BA20" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="AO21" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="AP21" s="15">
+        <v>455</v>
+      </c>
+      <c r="AQ21" s="15">
         <v>20</v>
       </c>
-      <c r="O15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="24" t="s">
+      <c r="AR21" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="J16" s="19">
-        <v>197</v>
-      </c>
-      <c r="K16" s="19">
-        <v>6</v>
-      </c>
-      <c r="L16" s="19">
-        <v>57</v>
-      </c>
-      <c r="M16" s="19">
-        <v>63</v>
-      </c>
-      <c r="N16" s="19">
-        <v>41</v>
-      </c>
-      <c r="O16" s="19">
-        <v>964</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="J17" s="19">
-        <v>321</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19">
-        <v>479</v>
-      </c>
-      <c r="M17" s="19">
-        <v>88</v>
-      </c>
-      <c r="N17" s="19">
-        <v>5</v>
-      </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19">
-        <v>93</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <v>2022</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="R21" s="20">
-        <v>8000</v>
-      </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20">
-        <v>100</v>
-      </c>
-      <c r="T22" s="20">
-        <v>95</v>
-      </c>
-      <c r="U22" s="20">
-        <v>45</v>
-      </c>
-      <c r="V22" s="20">
-        <v>132</v>
-      </c>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="6"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20">
-        <v>139</v>
-      </c>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="C24" s="6"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="C25" s="6"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="C26" s="6"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="20">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="20">
-        <v>145</v>
-      </c>
-      <c r="AA27" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="20">
-        <v>6</v>
-      </c>
-      <c r="AC27" s="20">
-        <v>62</v>
-      </c>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="C29" s="6"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="C30" s="6"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-    </row>
-    <row r="33" spans="1:56" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG33" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI33" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ33" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="AF34" s="21">
-        <v>6700</v>
-      </c>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21">
-        <v>323</v>
-      </c>
-      <c r="AH35" s="21">
-        <v>6</v>
-      </c>
-      <c r="AI35" s="21">
-        <v>373</v>
-      </c>
-      <c r="AJ35" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="C36" s="7"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-    </row>
-    <row r="39" spans="1:56" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL39" s="13" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15">
         <v>52</v>
       </c>
-      <c r="AM39" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN39" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT39" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU39" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV39" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW39" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX39" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY39" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ39" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC39" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="AK40" s="17">
-        <v>3028</v>
-      </c>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
-      <c r="AO40" s="17"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="17"/>
-      <c r="AR40" s="17"/>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="17"/>
-      <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
-      <c r="AW40" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="AX40" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="AY40" s="18">
+      <c r="AM22" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="AN22" s="15">
+        <v>507</v>
+      </c>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15">
+        <v>3112</v>
+      </c>
+      <c r="AT22" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AU22" s="16">
         <v>0.87</v>
       </c>
-      <c r="AZ40" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="BA40" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="BB40" s="17">
-        <v>6700</v>
-      </c>
-      <c r="BC40" s="17">
-        <v>8000</v>
-      </c>
-      <c r="BD40" s="17"/>
-    </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="AN41" s="17">
-        <v>337</v>
-      </c>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="17"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17">
-        <v>3028</v>
-      </c>
-      <c r="AT41" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="AW41" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="AX41" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="AY41" s="18">
-        <v>0.87</v>
-      </c>
-      <c r="AZ41" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="BA41" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="BB41" s="18"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="17"/>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="18">
-        <v>0.62</v>
-      </c>
-      <c r="AM42" s="18">
-        <v>0.61</v>
-      </c>
-      <c r="AN42" s="18">
-        <v>0.19</v>
-      </c>
-      <c r="AO42" s="18">
-        <v>0.12</v>
-      </c>
-      <c r="AP42" s="17">
-        <v>455</v>
-      </c>
-      <c r="AQ42" s="17">
-        <v>20</v>
-      </c>
-      <c r="AR42" s="18">
-        <v>0.59</v>
-      </c>
-      <c r="AS42" s="17"/>
-      <c r="AT42" s="17"/>
-      <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
-      <c r="AW42" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="AX42" s="17"/>
-      <c r="AY42" s="17"/>
-      <c r="AZ42" s="17"/>
-      <c r="BA42" s="17"/>
-      <c r="BB42" s="17"/>
-      <c r="BC42" s="17"/>
-      <c r="BD42" s="17"/>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17">
-        <v>52</v>
-      </c>
-      <c r="AM43" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="AN43" s="17">
-        <v>507</v>
-      </c>
-      <c r="AO43" s="17"/>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="17"/>
-      <c r="AR43" s="17"/>
-      <c r="AS43" s="17">
-        <v>3112</v>
-      </c>
-      <c r="AT43" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="AU43" s="18">
-        <v>0.87</v>
-      </c>
-      <c r="AV43" s="18">
+      <c r="AV22" s="16">
         <v>0.1</v>
       </c>
-      <c r="AW43" s="17"/>
-      <c r="AX43" s="17"/>
-      <c r="AY43" s="17"/>
-      <c r="AZ43" s="17"/>
-      <c r="BA43" s="17"/>
-      <c r="BB43" s="17"/>
-      <c r="BC43" s="17"/>
-      <c r="BD43" s="17"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,19 +1529,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E8A14C35611B44FAE08C7282FBC43BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c258f84c8883adaba6693857568905">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3dcd26c-518f-4103-85e3-288a7f67eda7" xmlns:ns3="cf6ddc61-6b1c-4d58-9daa-562ef749da72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b6e5ccfb7e00e6117bade8c94a8a5e1" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E8A14C35611B44FAE08C7282FBC43BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f9cf179aecaba92d016532443a5fda1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3dcd26c-518f-4103-85e3-288a7f67eda7" xmlns:ns3="cf6ddc61-6b1c-4d58-9daa-562ef749da72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007177ca3d9bc42b3d7c82b4f81599a6" ns2:_="" ns3:_="">
     <xsd:import namespace="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
     <xsd:import namespace="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
     <xsd:element name="properties">
@@ -1762,6 +1553,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1831,6 +1623,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1974,6 +1771,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FBA4C2E-B382-487E-9AAE-12D2502404D8}">
   <ds:schemaRefs>
@@ -1983,18 +1791,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B7E344-8DF6-4CD5-AEAD-64DA087202B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
-    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C2F7E68-2B64-464A-AFA0-58917B5F76B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4B3DB4-951A-43EC-8E65-CDB380C73447}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2010,4 +1807,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B7E344-8DF6-4CD5-AEAD-64DA087202B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>